--- a/artfynd/A 60557-2021.xlsx
+++ b/artfynd/A 60557-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY10"/>
+  <dimension ref="A1:AY28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1644,10 +1644,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>97398439</v>
+        <v>112044187</v>
       </c>
       <c r="B10" t="n">
-        <v>96334</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1677,31 +1677,20 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Hedemora, Dlr</t>
+          <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554771.9511894669</v>
+        <v>554629.3579511056</v>
       </c>
       <c r="R10" t="n">
-        <v>6698637.242191116</v>
+        <v>6698775.371911552</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1725,22 +1714,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2021-12-04</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2021-12-04</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1755,15 +1744,2067 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112044193</v>
+      </c>
+      <c r="B11" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>554737.1438901619</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6698615.970722267</v>
+      </c>
+      <c r="S11" t="n">
+        <v>15</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112044186</v>
+      </c>
+      <c r="B12" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>554675.2248086772</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6698784.95376494</v>
+      </c>
+      <c r="S12" t="n">
+        <v>15</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112044163</v>
+      </c>
+      <c r="B13" t="n">
+        <v>56543</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>554649.8462058549</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6698761.850352851</v>
+      </c>
+      <c r="S13" t="n">
+        <v>15</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112044188</v>
+      </c>
+      <c r="B14" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>554647.4027911026</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6698759.837798389</v>
+      </c>
+      <c r="S14" t="n">
+        <v>15</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112044174</v>
+      </c>
+      <c r="B15" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>554690.0200325176</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6698722.446803589</v>
+      </c>
+      <c r="S15" t="n">
+        <v>15</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112044189</v>
+      </c>
+      <c r="B16" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>554686.0778023974</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6698721.399487584</v>
+      </c>
+      <c r="S16" t="n">
+        <v>15</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112044170</v>
+      </c>
+      <c r="B17" t="n">
+        <v>89845</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>554745.1729263922</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6698641.283547246</v>
+      </c>
+      <c r="S17" t="n">
+        <v>15</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112044194</v>
+      </c>
+      <c r="B18" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>554745.5082999393</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6698619.060677188</v>
+      </c>
+      <c r="S18" t="n">
+        <v>15</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112044190</v>
+      </c>
+      <c r="B19" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>554681.5408261092</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6698694.164216922</v>
+      </c>
+      <c r="S19" t="n">
+        <v>15</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112044191</v>
+      </c>
+      <c r="B20" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>554718.5392677924</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6698668.54293833</v>
+      </c>
+      <c r="S20" t="n">
+        <v>15</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112044192</v>
+      </c>
+      <c r="B21" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>554727.1613968492</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6698621.74757569</v>
+      </c>
+      <c r="S21" t="n">
+        <v>15</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112044185</v>
+      </c>
+      <c r="B22" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>554752.1651241219</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6698636.943500359</v>
+      </c>
+      <c r="S22" t="n">
+        <v>15</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>97398439</v>
+      </c>
+      <c r="B23" t="n">
+        <v>96334</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Hedemora, Dlr</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>554771.9511894669</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6698637.242191116</v>
+      </c>
+      <c r="S23" t="n">
+        <v>25</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2021-12-04</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>12:09</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2021-12-04</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>12:09</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
           <t xml:space="preserve">FREDRIK  Månsson </t>
         </is>
       </c>
-      <c r="AX10" t="inlineStr">
+      <c r="AX23" t="inlineStr">
         <is>
           <t xml:space="preserve">FREDRIK  Månsson </t>
         </is>
       </c>
-      <c r="AY10" t="inlineStr"/>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112044171</v>
+      </c>
+      <c r="B24" t="n">
+        <v>89686</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>658</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>554758.2798517325</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6698625.180901731</v>
+      </c>
+      <c r="S24" t="n">
+        <v>15</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112044184</v>
+      </c>
+      <c r="B25" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>554833.1685495249</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6698646.070258263</v>
+      </c>
+      <c r="S25" t="n">
+        <v>15</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112044158</v>
+      </c>
+      <c r="B26" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>554756.2117879431</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6698631.077137407</v>
+      </c>
+      <c r="S26" t="n">
+        <v>15</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112044195</v>
+      </c>
+      <c r="B27" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>554805.6971803866</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6698597.741434017</v>
+      </c>
+      <c r="S27" t="n">
+        <v>15</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112044162</v>
+      </c>
+      <c r="B28" t="n">
+        <v>56543</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>554764.5861975367</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6698666.274117285</v>
+      </c>
+      <c r="S28" t="n">
+        <v>15</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 60557-2021.xlsx
+++ b/artfynd/A 60557-2021.xlsx
@@ -1644,7 +1644,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112044187</v>
+        <v>112044189</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1684,10 +1684,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554629.3579511056</v>
+        <v>554686.0778023974</v>
       </c>
       <c r="R10" t="n">
-        <v>6698775.371911552</v>
+        <v>6698721.399487584</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112044186</v>
+        <v>112044188</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1908,10 +1908,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554675.2248086772</v>
+        <v>554647.4027911026</v>
       </c>
       <c r="R12" t="n">
-        <v>6698784.95376494</v>
+        <v>6698759.837798389</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1980,10 +1980,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112044163</v>
+        <v>112044190</v>
       </c>
       <c r="B13" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1992,46 +1992,38 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>554649.8462058549</v>
+        <v>554681.5408261092</v>
       </c>
       <c r="R13" t="n">
-        <v>6698761.850352851</v>
+        <v>6698694.164216922</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2100,7 +2092,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112044188</v>
+        <v>112044186</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2140,10 +2132,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>554647.4027911026</v>
+        <v>554675.2248086772</v>
       </c>
       <c r="R14" t="n">
-        <v>6698759.837798389</v>
+        <v>6698784.95376494</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2212,10 +2204,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112044174</v>
+        <v>112044163</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2224,35 +2216,35 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2260,10 +2252,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>554690.0200325176</v>
+        <v>554649.8462058549</v>
       </c>
       <c r="R15" t="n">
-        <v>6698722.446803589</v>
+        <v>6698761.850352851</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2314,7 +2306,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2333,7 +2324,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112044189</v>
+        <v>112044185</v>
       </c>
       <c r="B16" t="n">
         <v>96348</v>
@@ -2373,10 +2364,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>554686.0778023974</v>
+        <v>554752.1651241219</v>
       </c>
       <c r="R16" t="n">
-        <v>6698721.399487584</v>
+        <v>6698636.943500359</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2445,10 +2436,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112044170</v>
+        <v>112044194</v>
       </c>
       <c r="B17" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2461,21 +2452,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2485,10 +2476,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>554745.1729263922</v>
+        <v>554745.5082999393</v>
       </c>
       <c r="R17" t="n">
-        <v>6698641.283547246</v>
+        <v>6698619.060677188</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2557,7 +2548,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112044194</v>
+        <v>112044187</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2597,10 +2588,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>554745.5082999393</v>
+        <v>554629.3579511056</v>
       </c>
       <c r="R18" t="n">
-        <v>6698619.060677188</v>
+        <v>6698775.371911552</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2669,7 +2660,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112044190</v>
+        <v>112044191</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2709,10 +2700,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>554681.5408261092</v>
+        <v>554718.5392677924</v>
       </c>
       <c r="R19" t="n">
-        <v>6698694.164216922</v>
+        <v>6698668.54293833</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2781,10 +2772,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112044191</v>
+        <v>112044170</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2797,21 +2788,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2821,10 +2812,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>554718.5392677924</v>
+        <v>554745.1729263922</v>
       </c>
       <c r="R20" t="n">
-        <v>6698668.54293833</v>
+        <v>6698641.283547246</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2893,7 +2884,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112044192</v>
+        <v>112044174</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2927,16 +2918,24 @@
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>554727.1613968492</v>
+        <v>554690.0200325176</v>
       </c>
       <c r="R21" t="n">
-        <v>6698621.74757569</v>
+        <v>6698722.446803589</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2987,6 +2986,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112044185</v>
+        <v>112044192</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3045,10 +3045,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>554752.1651241219</v>
+        <v>554727.1613968492</v>
       </c>
       <c r="R22" t="n">
-        <v>6698636.943500359</v>
+        <v>6698621.74757569</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3240,10 +3240,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112044171</v>
+        <v>112044158</v>
       </c>
       <c r="B24" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3256,21 +3256,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3280,10 +3280,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>554758.2798517325</v>
+        <v>554756.2117879431</v>
       </c>
       <c r="R24" t="n">
-        <v>6698625.180901731</v>
+        <v>6698631.077137407</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112044184</v>
+        <v>112044195</v>
       </c>
       <c r="B25" t="n">
         <v>96348</v>
@@ -3392,10 +3392,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>554833.1685495249</v>
+        <v>554805.6971803866</v>
       </c>
       <c r="R25" t="n">
-        <v>6698646.070258263</v>
+        <v>6698597.741434017</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3464,10 +3464,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112044158</v>
+        <v>112044171</v>
       </c>
       <c r="B26" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3480,21 +3480,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3504,10 +3504,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>554756.2117879431</v>
+        <v>554758.2798517325</v>
       </c>
       <c r="R26" t="n">
-        <v>6698631.077137407</v>
+        <v>6698625.180901731</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3576,7 +3576,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112044195</v>
+        <v>112044184</v>
       </c>
       <c r="B27" t="n">
         <v>96348</v>
@@ -3616,10 +3616,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>554805.6971803866</v>
+        <v>554833.1685495249</v>
       </c>
       <c r="R27" t="n">
-        <v>6698597.741434017</v>
+        <v>6698646.070258263</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>

--- a/artfynd/A 60557-2021.xlsx
+++ b/artfynd/A 60557-2021.xlsx
@@ -1644,7 +1644,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112044189</v>
+        <v>112044192</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1684,10 +1684,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554686.0778023974</v>
+        <v>554727.1613968492</v>
       </c>
       <c r="R10" t="n">
-        <v>6698721.399487584</v>
+        <v>6698621.74757569</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112044193</v>
+        <v>112044189</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1796,10 +1796,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554737.1438901619</v>
+        <v>554686.0778023974</v>
       </c>
       <c r="R11" t="n">
-        <v>6698615.970722267</v>
+        <v>6698721.399487584</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112044188</v>
+        <v>112044194</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1908,10 +1908,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554647.4027911026</v>
+        <v>554745.5082999393</v>
       </c>
       <c r="R12" t="n">
-        <v>6698759.837798389</v>
+        <v>6698619.060677188</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112044190</v>
+        <v>112044187</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -2020,10 +2020,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>554681.5408261092</v>
+        <v>554629.3579511056</v>
       </c>
       <c r="R13" t="n">
-        <v>6698694.164216922</v>
+        <v>6698775.371911552</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2092,10 +2092,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112044186</v>
+        <v>112044163</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2104,38 +2104,46 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>554675.2248086772</v>
+        <v>554649.8462058549</v>
       </c>
       <c r="R14" t="n">
-        <v>6698784.95376494</v>
+        <v>6698761.850352851</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2204,10 +2212,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112044163</v>
+        <v>112044174</v>
       </c>
       <c r="B15" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2216,35 +2224,35 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2252,10 +2260,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>554649.8462058549</v>
+        <v>554690.0200325176</v>
       </c>
       <c r="R15" t="n">
-        <v>6698761.850352851</v>
+        <v>6698722.446803589</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2306,6 +2314,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2324,10 +2333,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112044185</v>
+        <v>112044170</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2340,21 +2349,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2364,10 +2373,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>554752.1651241219</v>
+        <v>554745.1729263922</v>
       </c>
       <c r="R16" t="n">
-        <v>6698636.943500359</v>
+        <v>6698641.283547246</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2436,7 +2445,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112044194</v>
+        <v>112044190</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2476,10 +2485,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>554745.5082999393</v>
+        <v>554681.5408261092</v>
       </c>
       <c r="R17" t="n">
-        <v>6698619.060677188</v>
+        <v>6698694.164216922</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2548,7 +2557,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112044187</v>
+        <v>112044191</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2588,10 +2597,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>554629.3579511056</v>
+        <v>554718.5392677924</v>
       </c>
       <c r="R18" t="n">
-        <v>6698775.371911552</v>
+        <v>6698668.54293833</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2660,7 +2669,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112044191</v>
+        <v>112044186</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2700,10 +2709,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>554718.5392677924</v>
+        <v>554675.2248086772</v>
       </c>
       <c r="R19" t="n">
-        <v>6698668.54293833</v>
+        <v>6698784.95376494</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2772,10 +2781,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112044170</v>
+        <v>112044185</v>
       </c>
       <c r="B20" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2788,21 +2797,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2812,10 +2821,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>554745.1729263922</v>
+        <v>554752.1651241219</v>
       </c>
       <c r="R20" t="n">
-        <v>6698641.283547246</v>
+        <v>6698636.943500359</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2884,7 +2893,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112044174</v>
+        <v>112044188</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2918,24 +2927,16 @@
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>554690.0200325176</v>
+        <v>554647.4027911026</v>
       </c>
       <c r="R21" t="n">
-        <v>6698722.446803589</v>
+        <v>6698759.837798389</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2986,7 +2987,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112044192</v>
+        <v>112044193</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3045,10 +3045,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>554727.1613968492</v>
+        <v>554737.1438901619</v>
       </c>
       <c r="R22" t="n">
-        <v>6698621.74757569</v>
+        <v>6698615.970722267</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3240,10 +3240,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112044158</v>
+        <v>112044184</v>
       </c>
       <c r="B24" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3252,25 +3252,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3280,10 +3280,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>554756.2117879431</v>
+        <v>554833.1685495249</v>
       </c>
       <c r="R24" t="n">
-        <v>6698631.077137407</v>
+        <v>6698646.070258263</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3352,10 +3352,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112044195</v>
+        <v>112044162</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3364,38 +3364,46 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>554805.6971803866</v>
+        <v>554764.5861975367</v>
       </c>
       <c r="R25" t="n">
-        <v>6698597.741434017</v>
+        <v>6698666.274117285</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3464,10 +3472,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112044171</v>
+        <v>112044158</v>
       </c>
       <c r="B26" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3480,21 +3488,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3504,10 +3512,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>554758.2798517325</v>
+        <v>554756.2117879431</v>
       </c>
       <c r="R26" t="n">
-        <v>6698625.180901731</v>
+        <v>6698631.077137407</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3576,10 +3584,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112044184</v>
+        <v>112044171</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3588,25 +3596,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3616,10 +3624,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>554833.1685495249</v>
+        <v>554758.2798517325</v>
       </c>
       <c r="R27" t="n">
-        <v>6698646.070258263</v>
+        <v>6698625.180901731</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3688,10 +3696,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112044162</v>
+        <v>112044195</v>
       </c>
       <c r="B28" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3700,46 +3708,38 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>554764.5861975367</v>
+        <v>554805.6971803866</v>
       </c>
       <c r="R28" t="n">
-        <v>6698666.274117285</v>
+        <v>6698597.741434017</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>

--- a/artfynd/A 60557-2021.xlsx
+++ b/artfynd/A 60557-2021.xlsx
@@ -1644,7 +1644,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112044192</v>
+        <v>112044194</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1684,10 +1684,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554727.1613968492</v>
+        <v>554745.5082999393</v>
       </c>
       <c r="R10" t="n">
-        <v>6698621.74757569</v>
+        <v>6698619.060677188</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112044194</v>
+        <v>112044190</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1908,10 +1908,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554745.5082999393</v>
+        <v>554681.5408261092</v>
       </c>
       <c r="R12" t="n">
-        <v>6698619.060677188</v>
+        <v>6698694.164216922</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112044187</v>
+        <v>112044191</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -2020,10 +2020,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>554629.3579511056</v>
+        <v>554718.5392677924</v>
       </c>
       <c r="R13" t="n">
-        <v>6698775.371911552</v>
+        <v>6698668.54293833</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2092,10 +2092,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112044163</v>
+        <v>112044188</v>
       </c>
       <c r="B14" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2104,46 +2104,38 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>554649.8462058549</v>
+        <v>554647.4027911026</v>
       </c>
       <c r="R14" t="n">
-        <v>6698761.850352851</v>
+        <v>6698759.837798389</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2333,10 +2325,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112044170</v>
+        <v>112044186</v>
       </c>
       <c r="B16" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2349,21 +2341,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2373,10 +2365,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>554745.1729263922</v>
+        <v>554675.2248086772</v>
       </c>
       <c r="R16" t="n">
-        <v>6698641.283547246</v>
+        <v>6698784.95376494</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2445,7 +2437,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112044190</v>
+        <v>112044185</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2485,10 +2477,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>554681.5408261092</v>
+        <v>554752.1651241219</v>
       </c>
       <c r="R17" t="n">
-        <v>6698694.164216922</v>
+        <v>6698636.943500359</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2557,7 +2549,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112044191</v>
+        <v>112044187</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2597,10 +2589,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>554718.5392677924</v>
+        <v>554629.3579511056</v>
       </c>
       <c r="R18" t="n">
-        <v>6698668.54293833</v>
+        <v>6698775.371911552</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2669,7 +2661,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112044186</v>
+        <v>112044193</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2709,10 +2701,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>554675.2248086772</v>
+        <v>554737.1438901619</v>
       </c>
       <c r="R19" t="n">
-        <v>6698784.95376494</v>
+        <v>6698615.970722267</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2781,10 +2773,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112044185</v>
+        <v>112044163</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2793,38 +2785,46 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>554752.1651241219</v>
+        <v>554649.8462058549</v>
       </c>
       <c r="R20" t="n">
-        <v>6698636.943500359</v>
+        <v>6698761.850352851</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2893,10 +2893,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112044188</v>
+        <v>112044170</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2909,21 +2909,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2933,10 +2933,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>554647.4027911026</v>
+        <v>554745.1729263922</v>
       </c>
       <c r="R21" t="n">
-        <v>6698759.837798389</v>
+        <v>6698641.283547246</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112044193</v>
+        <v>112044192</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3045,10 +3045,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>554737.1438901619</v>
+        <v>554727.1613968492</v>
       </c>
       <c r="R22" t="n">
-        <v>6698615.970722267</v>
+        <v>6698621.74757569</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3240,7 +3240,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112044184</v>
+        <v>112044195</v>
       </c>
       <c r="B24" t="n">
         <v>96348</v>
@@ -3280,10 +3280,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>554833.1685495249</v>
+        <v>554805.6971803866</v>
       </c>
       <c r="R24" t="n">
-        <v>6698646.070258263</v>
+        <v>6698597.741434017</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3352,10 +3352,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112044162</v>
+        <v>112044171</v>
       </c>
       <c r="B25" t="n">
-        <v>56543</v>
+        <v>89686</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3368,42 +3368,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>103021</v>
+        <v>658</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>554764.5861975367</v>
+        <v>554758.2798517325</v>
       </c>
       <c r="R25" t="n">
-        <v>6698666.274117285</v>
+        <v>6698625.180901731</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3584,10 +3576,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112044171</v>
+        <v>112044184</v>
       </c>
       <c r="B27" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3596,25 +3588,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3624,10 +3616,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>554758.2798517325</v>
+        <v>554833.1685495249</v>
       </c>
       <c r="R27" t="n">
-        <v>6698625.180901731</v>
+        <v>6698646.070258263</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3696,10 +3688,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112044195</v>
+        <v>112044162</v>
       </c>
       <c r="B28" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3708,38 +3700,46 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>554805.6971803866</v>
+        <v>554764.5861975367</v>
       </c>
       <c r="R28" t="n">
-        <v>6698597.741434017</v>
+        <v>6698666.274117285</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>

--- a/artfynd/A 60557-2021.xlsx
+++ b/artfynd/A 60557-2021.xlsx
@@ -1644,7 +1644,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112044194</v>
+        <v>112044190</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1684,10 +1684,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554745.5082999393</v>
+        <v>554682</v>
       </c>
       <c r="R10" t="n">
-        <v>6698619.060677188</v>
+        <v>6698694</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1717,19 +1717,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1756,7 +1746,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112044189</v>
+        <v>112044194</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1796,10 +1786,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554686.0778023974</v>
+        <v>554746</v>
       </c>
       <c r="R11" t="n">
-        <v>6698721.399487584</v>
+        <v>6698619</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1829,19 +1819,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1868,7 +1848,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112044190</v>
+        <v>112044187</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1908,10 +1888,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554681.5408261092</v>
+        <v>554629</v>
       </c>
       <c r="R12" t="n">
-        <v>6698694.164216922</v>
+        <v>6698775</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1941,19 +1921,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1980,10 +1950,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112044191</v>
+        <v>112044170</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1996,21 +1966,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2020,10 +1990,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>554718.5392677924</v>
+        <v>554745</v>
       </c>
       <c r="R13" t="n">
-        <v>6698668.54293833</v>
+        <v>6698641</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2053,19 +2023,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2092,7 +2052,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112044188</v>
+        <v>112044174</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2126,16 +2086,24 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>554647.4027911026</v>
+        <v>554690</v>
       </c>
       <c r="R14" t="n">
-        <v>6698759.837798389</v>
+        <v>6698722</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2165,27 +2133,18 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2204,7 +2163,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112044174</v>
+        <v>112044188</v>
       </c>
       <c r="B15" t="n">
         <v>96348</v>
@@ -2238,24 +2197,16 @@
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>554690.0200325176</v>
+        <v>554647</v>
       </c>
       <c r="R15" t="n">
-        <v>6698722.446803589</v>
+        <v>6698760</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2285,28 +2236,17 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2325,10 +2265,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112044186</v>
+        <v>112044163</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2337,38 +2277,46 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>554675.2248086772</v>
+        <v>554650</v>
       </c>
       <c r="R16" t="n">
-        <v>6698784.95376494</v>
+        <v>6698762</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2398,19 +2346,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2437,7 +2375,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112044185</v>
+        <v>112044186</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2477,10 +2415,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>554752.1651241219</v>
+        <v>554675</v>
       </c>
       <c r="R17" t="n">
-        <v>6698636.943500359</v>
+        <v>6698785</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2510,19 +2448,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2549,7 +2477,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112044187</v>
+        <v>112044191</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2589,10 +2517,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>554629.3579511056</v>
+        <v>554719</v>
       </c>
       <c r="R18" t="n">
-        <v>6698775.371911552</v>
+        <v>6698669</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2622,19 +2550,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2661,7 +2579,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112044193</v>
+        <v>112044189</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2701,10 +2619,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>554737.1438901619</v>
+        <v>554686</v>
       </c>
       <c r="R19" t="n">
-        <v>6698615.970722267</v>
+        <v>6698721</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2734,19 +2652,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2773,10 +2681,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112044163</v>
+        <v>112044185</v>
       </c>
       <c r="B20" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2785,46 +2693,38 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>554649.8462058549</v>
+        <v>554752</v>
       </c>
       <c r="R20" t="n">
-        <v>6698761.850352851</v>
+        <v>6698637</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2854,19 +2754,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2893,10 +2783,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112044170</v>
+        <v>112044192</v>
       </c>
       <c r="B21" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2909,21 +2799,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2933,10 +2823,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>554745.1729263922</v>
+        <v>554727</v>
       </c>
       <c r="R21" t="n">
-        <v>6698641.283547246</v>
+        <v>6698622</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2966,19 +2856,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3005,7 +2885,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112044192</v>
+        <v>112044193</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3045,10 +2925,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>554727.1613968492</v>
+        <v>554737</v>
       </c>
       <c r="R22" t="n">
-        <v>6698621.74757569</v>
+        <v>6698616</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3078,19 +2958,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3240,10 +3110,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112044195</v>
+        <v>112044162</v>
       </c>
       <c r="B24" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3252,38 +3122,46 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>554805.6971803866</v>
+        <v>554765</v>
       </c>
       <c r="R24" t="n">
-        <v>6698597.741434017</v>
+        <v>6698666</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3313,19 +3191,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3352,10 +3220,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112044171</v>
+        <v>112044195</v>
       </c>
       <c r="B25" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3364,25 +3232,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3392,10 +3260,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>554758.2798517325</v>
+        <v>554806</v>
       </c>
       <c r="R25" t="n">
-        <v>6698625.180901731</v>
+        <v>6698598</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3425,19 +3293,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3464,10 +3322,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112044158</v>
+        <v>112044171</v>
       </c>
       <c r="B26" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3480,21 +3338,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3504,10 +3362,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>554756.2117879431</v>
+        <v>554758</v>
       </c>
       <c r="R26" t="n">
-        <v>6698631.077137407</v>
+        <v>6698625</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3537,19 +3395,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3576,10 +3424,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112044184</v>
+        <v>112044158</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3588,25 +3436,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3616,10 +3464,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>554833.1685495249</v>
+        <v>554756</v>
       </c>
       <c r="R27" t="n">
-        <v>6698646.070258263</v>
+        <v>6698631</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3649,19 +3497,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3688,10 +3526,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112044162</v>
+        <v>112044184</v>
       </c>
       <c r="B28" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3700,46 +3538,38 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>554764.5861975367</v>
+        <v>554833</v>
       </c>
       <c r="R28" t="n">
-        <v>6698666.274117285</v>
+        <v>6698646</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3769,19 +3599,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">

--- a/artfynd/A 60557-2021.xlsx
+++ b/artfynd/A 60557-2021.xlsx
@@ -1644,10 +1644,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112044190</v>
+        <v>112044174</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1678,16 +1678,24 @@
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554682</v>
+        <v>554690</v>
       </c>
       <c r="R10" t="n">
-        <v>6698694</v>
+        <v>6698722</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1728,6 +1736,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1746,10 +1755,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112044194</v>
+        <v>112044190</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1786,10 +1795,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554746</v>
+        <v>554682</v>
       </c>
       <c r="R11" t="n">
-        <v>6698619</v>
+        <v>6698694</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1848,10 +1857,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112044187</v>
+        <v>112044194</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1888,10 +1897,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554629</v>
+        <v>554746</v>
       </c>
       <c r="R12" t="n">
-        <v>6698775</v>
+        <v>6698619</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1950,10 +1959,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112044170</v>
+        <v>112044191</v>
       </c>
       <c r="B13" t="n">
-        <v>89845</v>
+        <v>96720</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1966,21 +1975,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1990,10 +1999,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>554745</v>
+        <v>554719</v>
       </c>
       <c r="R13" t="n">
-        <v>6698641</v>
+        <v>6698669</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2052,10 +2061,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112044174</v>
+        <v>112044170</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>89979</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2068,42 +2077,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>554690</v>
+        <v>554745</v>
       </c>
       <c r="R14" t="n">
-        <v>6698722</v>
+        <v>6698641</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2144,7 +2145,6 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2163,10 +2163,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112044188</v>
+        <v>112044192</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>554647</v>
+        <v>554727</v>
       </c>
       <c r="R15" t="n">
-        <v>6698760</v>
+        <v>6698622</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2268,7 +2268,7 @@
         <v>112044163</v>
       </c>
       <c r="B16" t="n">
-        <v>56543</v>
+        <v>56575</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2375,10 +2375,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112044186</v>
+        <v>112044187</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>554675</v>
+        <v>554629</v>
       </c>
       <c r="R17" t="n">
-        <v>6698785</v>
+        <v>6698775</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2477,10 +2477,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112044191</v>
+        <v>112044193</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2517,10 +2517,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>554719</v>
+        <v>554737</v>
       </c>
       <c r="R18" t="n">
-        <v>6698669</v>
+        <v>6698616</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2579,10 +2579,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112044189</v>
+        <v>112044185</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2619,10 +2619,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>554686</v>
+        <v>554752</v>
       </c>
       <c r="R19" t="n">
-        <v>6698721</v>
+        <v>6698637</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112044185</v>
+        <v>112044188</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2721,10 +2721,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>554752</v>
+        <v>554647</v>
       </c>
       <c r="R20" t="n">
-        <v>6698637</v>
+        <v>6698760</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2783,10 +2783,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112044192</v>
+        <v>112044189</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>554727</v>
+        <v>554686</v>
       </c>
       <c r="R21" t="n">
-        <v>6698622</v>
+        <v>6698721</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2885,10 +2885,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112044193</v>
+        <v>112044186</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2925,10 +2925,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>554737</v>
+        <v>554675</v>
       </c>
       <c r="R22" t="n">
-        <v>6698616</v>
+        <v>6698785</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3110,10 +3110,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112044162</v>
+        <v>112044158</v>
       </c>
       <c r="B24" t="n">
-        <v>56543</v>
+        <v>89539</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3126,42 +3126,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>554765</v>
+        <v>554756</v>
       </c>
       <c r="R24" t="n">
-        <v>6698666</v>
+        <v>6698631</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3220,10 +3212,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112044195</v>
+        <v>112044171</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>89820</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3232,25 +3224,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3260,10 +3252,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>554806</v>
+        <v>554758</v>
       </c>
       <c r="R25" t="n">
-        <v>6698598</v>
+        <v>6698625</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3322,10 +3314,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112044171</v>
+        <v>112044162</v>
       </c>
       <c r="B26" t="n">
-        <v>89686</v>
+        <v>56575</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3338,34 +3330,42 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>658</v>
+        <v>103021</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>554758</v>
+        <v>554765</v>
       </c>
       <c r="R26" t="n">
-        <v>6698625</v>
+        <v>6698666</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3424,10 +3424,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112044158</v>
+        <v>112044195</v>
       </c>
       <c r="B27" t="n">
-        <v>89405</v>
+        <v>96720</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3436,25 +3436,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3464,10 +3464,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>554756</v>
+        <v>554806</v>
       </c>
       <c r="R27" t="n">
-        <v>6698631</v>
+        <v>6698598</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3529,7 +3529,7 @@
         <v>112044184</v>
       </c>
       <c r="B28" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>

--- a/artfynd/A 60557-2021.xlsx
+++ b/artfynd/A 60557-2021.xlsx
@@ -1644,10 +1644,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112044174</v>
+        <v>112044191</v>
       </c>
       <c r="B10" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1678,24 +1678,16 @@
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554690</v>
+        <v>554719</v>
       </c>
       <c r="R10" t="n">
-        <v>6698722</v>
+        <v>6698669</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1736,7 +1728,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1755,10 +1746,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112044190</v>
+        <v>112044188</v>
       </c>
       <c r="B11" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1795,10 +1786,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554682</v>
+        <v>554647</v>
       </c>
       <c r="R11" t="n">
-        <v>6698694</v>
+        <v>6698760</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1857,10 +1848,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112044194</v>
+        <v>112044189</v>
       </c>
       <c r="B12" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1897,10 +1888,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554746</v>
+        <v>554686</v>
       </c>
       <c r="R12" t="n">
-        <v>6698619</v>
+        <v>6698721</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1959,10 +1950,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112044191</v>
+        <v>112044193</v>
       </c>
       <c r="B13" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1999,10 +1990,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>554719</v>
+        <v>554737</v>
       </c>
       <c r="R13" t="n">
-        <v>6698669</v>
+        <v>6698616</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2061,10 +2052,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112044170</v>
+        <v>112044185</v>
       </c>
       <c r="B14" t="n">
-        <v>89979</v>
+        <v>96735</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2077,21 +2068,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2101,10 +2092,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>554745</v>
+        <v>554752</v>
       </c>
       <c r="R14" t="n">
-        <v>6698641</v>
+        <v>6698637</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2163,10 +2154,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112044192</v>
+        <v>112044194</v>
       </c>
       <c r="B15" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2203,10 +2194,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>554727</v>
+        <v>554746</v>
       </c>
       <c r="R15" t="n">
-        <v>6698622</v>
+        <v>6698619</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2265,10 +2256,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112044163</v>
+        <v>112044187</v>
       </c>
       <c r="B16" t="n">
-        <v>56575</v>
+        <v>96735</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2277,46 +2268,38 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>554650</v>
+        <v>554629</v>
       </c>
       <c r="R16" t="n">
-        <v>6698762</v>
+        <v>6698775</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2375,10 +2358,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112044187</v>
+        <v>112044192</v>
       </c>
       <c r="B17" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2415,10 +2398,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>554629</v>
+        <v>554727</v>
       </c>
       <c r="R17" t="n">
-        <v>6698775</v>
+        <v>6698622</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2477,10 +2460,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112044193</v>
+        <v>112044170</v>
       </c>
       <c r="B18" t="n">
-        <v>96720</v>
+        <v>89993</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2493,21 +2476,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2517,10 +2500,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>554737</v>
+        <v>554745</v>
       </c>
       <c r="R18" t="n">
-        <v>6698616</v>
+        <v>6698641</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2579,10 +2562,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112044185</v>
+        <v>112044190</v>
       </c>
       <c r="B19" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2619,10 +2602,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>554752</v>
+        <v>554682</v>
       </c>
       <c r="R19" t="n">
-        <v>6698637</v>
+        <v>6698694</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2681,10 +2664,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112044188</v>
+        <v>112044186</v>
       </c>
       <c r="B20" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2721,10 +2704,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>554647</v>
+        <v>554675</v>
       </c>
       <c r="R20" t="n">
-        <v>6698760</v>
+        <v>6698785</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2783,10 +2766,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112044189</v>
+        <v>112044174</v>
       </c>
       <c r="B21" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2817,16 +2800,24 @@
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>554686</v>
+        <v>554690</v>
       </c>
       <c r="R21" t="n">
-        <v>6698721</v>
+        <v>6698722</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2867,6 +2858,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -2885,10 +2877,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112044186</v>
+        <v>112044163</v>
       </c>
       <c r="B22" t="n">
-        <v>96720</v>
+        <v>56575</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2897,38 +2889,46 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>554675</v>
+        <v>554650</v>
       </c>
       <c r="R22" t="n">
-        <v>6698785</v>
+        <v>6698762</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3110,10 +3110,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112044158</v>
+        <v>112044184</v>
       </c>
       <c r="B24" t="n">
-        <v>89539</v>
+        <v>96735</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3122,25 +3122,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3150,10 +3150,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>554756</v>
+        <v>554833</v>
       </c>
       <c r="R24" t="n">
-        <v>6698631</v>
+        <v>6698646</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3212,10 +3212,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112044171</v>
+        <v>112044195</v>
       </c>
       <c r="B25" t="n">
-        <v>89820</v>
+        <v>96735</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3224,25 +3224,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3252,10 +3252,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>554758</v>
+        <v>554806</v>
       </c>
       <c r="R25" t="n">
-        <v>6698625</v>
+        <v>6698598</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3314,10 +3314,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112044162</v>
+        <v>112044158</v>
       </c>
       <c r="B26" t="n">
-        <v>56575</v>
+        <v>89553</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3330,42 +3330,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>554765</v>
+        <v>554756</v>
       </c>
       <c r="R26" t="n">
-        <v>6698666</v>
+        <v>6698631</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3424,10 +3416,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112044195</v>
+        <v>112044171</v>
       </c>
       <c r="B27" t="n">
-        <v>96720</v>
+        <v>89834</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3436,25 +3428,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3464,10 +3456,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>554806</v>
+        <v>554758</v>
       </c>
       <c r="R27" t="n">
-        <v>6698598</v>
+        <v>6698625</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3526,10 +3518,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112044184</v>
+        <v>112044162</v>
       </c>
       <c r="B28" t="n">
-        <v>96720</v>
+        <v>56575</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3538,38 +3530,46 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>554833</v>
+        <v>554765</v>
       </c>
       <c r="R28" t="n">
-        <v>6698646</v>
+        <v>6698666</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>

--- a/artfynd/A 60557-2021.xlsx
+++ b/artfynd/A 60557-2021.xlsx
@@ -1644,7 +1644,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112044191</v>
+        <v>112044189</v>
       </c>
       <c r="B10" t="n">
         <v>96735</v>
@@ -1684,10 +1684,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554719</v>
+        <v>554686</v>
       </c>
       <c r="R10" t="n">
-        <v>6698669</v>
+        <v>6698721</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1746,10 +1746,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112044188</v>
+        <v>112044170</v>
       </c>
       <c r="B11" t="n">
-        <v>96735</v>
+        <v>89993</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1762,21 +1762,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1786,10 +1786,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554647</v>
+        <v>554745</v>
       </c>
       <c r="R11" t="n">
-        <v>6698760</v>
+        <v>6698641</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112044189</v>
+        <v>112044187</v>
       </c>
       <c r="B12" t="n">
         <v>96735</v>
@@ -1888,10 +1888,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554686</v>
+        <v>554629</v>
       </c>
       <c r="R12" t="n">
-        <v>6698721</v>
+        <v>6698775</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112044193</v>
+        <v>112044194</v>
       </c>
       <c r="B13" t="n">
         <v>96735</v>
@@ -1990,10 +1990,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>554737</v>
+        <v>554746</v>
       </c>
       <c r="R13" t="n">
-        <v>6698616</v>
+        <v>6698619</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112044185</v>
+        <v>112044193</v>
       </c>
       <c r="B14" t="n">
         <v>96735</v>
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>554752</v>
+        <v>554737</v>
       </c>
       <c r="R14" t="n">
-        <v>6698637</v>
+        <v>6698616</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112044194</v>
+        <v>112044188</v>
       </c>
       <c r="B15" t="n">
         <v>96735</v>
@@ -2194,10 +2194,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>554746</v>
+        <v>554647</v>
       </c>
       <c r="R15" t="n">
-        <v>6698619</v>
+        <v>6698760</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112044187</v>
+        <v>112044192</v>
       </c>
       <c r="B16" t="n">
         <v>96735</v>
@@ -2296,10 +2296,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>554629</v>
+        <v>554727</v>
       </c>
       <c r="R16" t="n">
-        <v>6698775</v>
+        <v>6698622</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112044192</v>
+        <v>112044174</v>
       </c>
       <c r="B17" t="n">
         <v>96735</v>
@@ -2392,16 +2392,24 @@
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>554727</v>
+        <v>554690</v>
       </c>
       <c r="R17" t="n">
-        <v>6698622</v>
+        <v>6698722</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2442,6 +2450,7 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2460,10 +2469,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112044170</v>
+        <v>112044190</v>
       </c>
       <c r="B18" t="n">
-        <v>89993</v>
+        <v>96735</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2476,21 +2485,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2500,10 +2509,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>554745</v>
+        <v>554682</v>
       </c>
       <c r="R18" t="n">
-        <v>6698641</v>
+        <v>6698694</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2562,7 +2571,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112044190</v>
+        <v>112044191</v>
       </c>
       <c r="B19" t="n">
         <v>96735</v>
@@ -2602,10 +2611,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>554682</v>
+        <v>554719</v>
       </c>
       <c r="R19" t="n">
-        <v>6698694</v>
+        <v>6698669</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2664,7 +2673,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112044186</v>
+        <v>112044185</v>
       </c>
       <c r="B20" t="n">
         <v>96735</v>
@@ -2704,10 +2713,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>554675</v>
+        <v>554752</v>
       </c>
       <c r="R20" t="n">
-        <v>6698785</v>
+        <v>6698637</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2766,7 +2775,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112044174</v>
+        <v>112044186</v>
       </c>
       <c r="B21" t="n">
         <v>96735</v>
@@ -2800,24 +2809,16 @@
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>554690</v>
+        <v>554675</v>
       </c>
       <c r="R21" t="n">
-        <v>6698722</v>
+        <v>6698785</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2858,7 +2859,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3110,10 +3110,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112044184</v>
+        <v>112044158</v>
       </c>
       <c r="B24" t="n">
-        <v>96735</v>
+        <v>89553</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3122,25 +3122,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3150,10 +3150,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>554833</v>
+        <v>554756</v>
       </c>
       <c r="R24" t="n">
-        <v>6698646</v>
+        <v>6698631</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112044195</v>
+        <v>112044184</v>
       </c>
       <c r="B25" t="n">
         <v>96735</v>
@@ -3252,10 +3252,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>554806</v>
+        <v>554833</v>
       </c>
       <c r="R25" t="n">
-        <v>6698598</v>
+        <v>6698646</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3314,10 +3314,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112044158</v>
+        <v>112044171</v>
       </c>
       <c r="B26" t="n">
-        <v>89553</v>
+        <v>89834</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3330,21 +3330,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>554756</v>
+        <v>554758</v>
       </c>
       <c r="R26" t="n">
-        <v>6698631</v>
+        <v>6698625</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3416,10 +3416,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112044171</v>
+        <v>112044195</v>
       </c>
       <c r="B27" t="n">
-        <v>89834</v>
+        <v>96735</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3428,25 +3428,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3456,10 +3456,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>554758</v>
+        <v>554806</v>
       </c>
       <c r="R27" t="n">
-        <v>6698625</v>
+        <v>6698598</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
